--- a/documents/time-records/Oberhammer_Lorenz_csam6460.xlsx
+++ b/documents/time-records/Oberhammer_Lorenz_csam6460.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QE\Documents\Work\Nabu\03_Teaching\02_Courses\Software Engineering\SS21\Templates - Projektabwicklung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBA0A32E-1537-4314-99D7-0E386064E2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB9D4F34-DAE8-4055-81A1-71F96878058A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28425" yWindow="4020" windowWidth="28245" windowHeight="17565" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="53">
   <si>
     <t>Datum</t>
   </si>
@@ -620,8 +620,8 @@
   <dimension ref="A1:D1020"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C86" sqref="C86"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C76" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B91" sqref="B91"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -1805,24 +1805,54 @@
       <c r="D86" s="3"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="8"/>
-      <c r="B87" s="7"/>
+      <c r="A87" s="8">
+        <v>44364</v>
+      </c>
+      <c r="B87" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C87" t="s">
+        <v>21</v>
+      </c>
       <c r="D87" s="3"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="8"/>
-      <c r="B88" s="7"/>
+      <c r="A88" s="8">
+        <v>44364</v>
+      </c>
+      <c r="B88" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C88" t="s">
+        <v>12</v>
+      </c>
       <c r="D88" s="3"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="8"/>
-      <c r="B89" s="7"/>
+      <c r="A89" s="8">
+        <v>44364</v>
+      </c>
+      <c r="B89" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C89" t="s">
+        <v>44</v>
+      </c>
       <c r="D89" s="3"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="8"/>
-      <c r="B90" s="7"/>
-      <c r="D90" s="3"/>
+      <c r="A90" s="8">
+        <v>44364</v>
+      </c>
+      <c r="B90" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="8"/>
